--- a/2022/SAMSUNG/Others/ROI/ROI June 2022 Mugdho Corporation.xlsx
+++ b/2022/SAMSUNG/Others/ROI/ROI June 2022 Mugdho Corporation.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\88017\Desktop\ROI\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\MC22\2022\SAMSUNG\Others\ROI\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19890" windowHeight="7425"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="19890" windowHeight="7425" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="ROI" sheetId="5" r:id="rId1"/>
@@ -2370,8 +2370,8 @@
   </sheetPr>
   <dimension ref="A1:Q77"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="L33" sqref="L33"/>
+    <sheetView showGridLines="0" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="M16" sqref="M16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" customHeight="1"/>
@@ -2504,7 +2504,7 @@
       </c>
       <c r="D13" s="71">
         <f>Details!D75</f>
-        <v>144699</v>
+        <v>206699</v>
       </c>
       <c r="E13" s="11"/>
       <c r="F13" s="8"/>
@@ -2699,7 +2699,7 @@
       </c>
       <c r="I24" s="45">
         <f>Details!N23</f>
-        <v>63500</v>
+        <v>125500</v>
       </c>
       <c r="J24" s="51"/>
       <c r="O24" s="18"/>
@@ -2844,7 +2844,7 @@
       </c>
       <c r="I32" s="47">
         <f>SUM(I24:I31)</f>
-        <v>144699</v>
+        <v>206699</v>
       </c>
       <c r="J32" s="51"/>
       <c r="O32" s="18"/>
@@ -2871,7 +2871,7 @@
       </c>
       <c r="I34" s="57">
         <f>I32</f>
-        <v>144699</v>
+        <v>206699</v>
       </c>
       <c r="J34" s="51"/>
       <c r="O34" s="18"/>
@@ -2908,7 +2908,7 @@
       </c>
       <c r="I36" s="57">
         <f>I21-I34</f>
-        <v>142868</v>
+        <v>80868</v>
       </c>
       <c r="J36" s="51"/>
       <c r="O36" s="18"/>
@@ -2948,7 +2948,7 @@
       </c>
       <c r="I38" s="59">
         <f>I36/I16</f>
-        <v>1.069612117284126E-2</v>
+        <v>6.0543573578780898E-3</v>
       </c>
       <c r="J38" s="107" t="s">
         <v>27</v>
@@ -2968,7 +2968,7 @@
       <c r="H39" s="110"/>
       <c r="I39" s="61">
         <f>(I36*12)/I16</f>
-        <v>0.1283534540740951</v>
+        <v>7.2652288294537085E-2</v>
       </c>
       <c r="J39" s="108" t="s">
         <v>28</v>
@@ -3523,8 +3523,8 @@
   </sheetPr>
   <dimension ref="A1:R106"/>
   <sheetViews>
-    <sheetView showGridLines="0" topLeftCell="B1" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
-      <selection activeCell="H77" sqref="H77"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="B52" zoomScale="87" zoomScaleNormal="87" workbookViewId="0">
+      <selection activeCell="N68" sqref="N68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="14.25"/>
@@ -3655,7 +3655,7 @@
         <v>30</v>
       </c>
       <c r="D12" s="15">
-        <v>15000</v>
+        <v>30000</v>
       </c>
       <c r="E12" s="16"/>
       <c r="F12" s="8"/>
@@ -3720,7 +3720,7 @@
         <v>34</v>
       </c>
       <c r="D14" s="15">
-        <v>27000</v>
+        <v>54000</v>
       </c>
       <c r="E14" s="11"/>
       <c r="F14" s="8"/>
@@ -3752,7 +3752,7 @@
         <v>37</v>
       </c>
       <c r="D15" s="15">
-        <v>12000</v>
+        <v>24000</v>
       </c>
       <c r="E15" s="11"/>
       <c r="F15" s="8"/>
@@ -3840,7 +3840,7 @@
         <v>42</v>
       </c>
       <c r="D18" s="15">
-        <v>8000</v>
+        <v>17500</v>
       </c>
       <c r="E18" s="20"/>
       <c r="F18" s="18"/>
@@ -3903,9 +3903,7 @@
       <c r="C20" s="14" t="s">
         <v>47</v>
       </c>
-      <c r="D20" s="15">
-        <v>1500</v>
-      </c>
+      <c r="D20" s="15"/>
       <c r="E20" s="20"/>
       <c r="F20" s="18"/>
       <c r="G20" s="21"/>
@@ -3938,7 +3936,7 @@
       </c>
       <c r="D21" s="24">
         <f>SUM(D12:D20)</f>
-        <v>63500</v>
+        <v>125500</v>
       </c>
       <c r="E21" s="20"/>
       <c r="F21" s="18"/>
@@ -4012,7 +4010,7 @@
       </c>
       <c r="N23" s="45">
         <f>D21</f>
-        <v>63500</v>
+        <v>125500</v>
       </c>
       <c r="O23" s="51"/>
       <c r="P23" s="18"/>
@@ -4258,7 +4256,7 @@
       </c>
       <c r="N31" s="47">
         <f>SUM(N23:N30)</f>
-        <v>144699</v>
+        <v>206699</v>
       </c>
       <c r="O31" s="51"/>
       <c r="P31" s="18"/>
@@ -4319,7 +4317,7 @@
       </c>
       <c r="N33" s="57">
         <f>N31</f>
-        <v>144699</v>
+        <v>206699</v>
       </c>
       <c r="O33" s="51"/>
       <c r="P33" s="18"/>
@@ -4380,7 +4378,7 @@
       </c>
       <c r="N35" s="57">
         <f>N20-N33</f>
-        <v>142868</v>
+        <v>80868</v>
       </c>
       <c r="O35" s="51"/>
       <c r="P35" s="18"/>
@@ -4441,7 +4439,7 @@
       </c>
       <c r="N37" s="59">
         <f>N35/N15</f>
-        <v>1.069612117284126E-2</v>
+        <v>6.0543573578780898E-3</v>
       </c>
       <c r="O37" s="60" t="s">
         <v>27</v>
@@ -4470,7 +4468,7 @@
       <c r="M38" s="110"/>
       <c r="N38" s="61">
         <f>(N35*12)/N15</f>
-        <v>0.1283534540740951</v>
+        <v>7.2652288294537085E-2</v>
       </c>
       <c r="O38" s="62" t="s">
         <v>28</v>
@@ -4780,7 +4778,7 @@
       </c>
       <c r="D50" s="24">
         <f>D21+D31+D39+D44+D49</f>
-        <v>73625</v>
+        <v>135625</v>
       </c>
       <c r="E50" s="20"/>
       <c r="F50" s="18"/>
@@ -4977,7 +4975,7 @@
       </c>
       <c r="D57" s="24">
         <f>SUM(D56,D50)</f>
-        <v>88525</v>
+        <v>150525</v>
       </c>
       <c r="E57" s="20"/>
       <c r="F57" s="18"/>
@@ -5388,7 +5386,7 @@
       </c>
       <c r="D75" s="71">
         <f>D57+D68+D73</f>
-        <v>144699</v>
+        <v>206699</v>
       </c>
       <c r="E75" s="20"/>
       <c r="F75" s="18"/>
